--- a/QA_Legend/src/test/resources/TestData.xlsx
+++ b/QA_Legend/src/test/resources/TestData.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="12210" windowHeight="6800" firstSheet="2" activeTab="4"/>
+    <workbookView windowWidth="19200" windowHeight="6800" firstSheet="2" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="loginpagesheet" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="9">
   <si>
     <t>Admin</t>
   </si>
@@ -52,6 +52,9 @@
   </si>
   <si>
     <t>ADMIN</t>
+  </si>
+  <si>
+    <t>Profile updated successfully</t>
   </si>
   <si>
     <t>Demo Company</t>
@@ -1094,17 +1097,23 @@
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1"/>
+  <dimension ref="A1:B1"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C1" sqref="C$1:C$1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.72727272727273" defaultRowHeight="14.5"/>
+  <sheetFormatPr defaultColWidth="8.72727272727273" defaultRowHeight="14.5" outlineLevelCol="1"/>
+  <cols>
+    <col min="2" max="2" width="27.4545454545455" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:1">
+    <row r="1" spans="1:2">
       <c r="A1" t="s">
         <v>6</v>
+      </c>
+      <c r="B1" t="s">
+        <v>7</v>
       </c>
     </row>
   </sheetData>
@@ -1118,7 +1127,7 @@
   <sheetPr/>
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="F17" sqref="F17"/>
     </sheetView>
   </sheetViews>
@@ -1129,7 +1138,7 @@
   <sheetData>
     <row r="1" spans="1:1">
       <c r="A1" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
   </sheetData>
